--- a/input/LiveOptics_file.xlsx
+++ b/input/LiveOptics_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttwyman/IDrive-Sync/pyvmcsizer/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA190F0-B0C1-8043-AE06-8FCB4CCCEB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3CFEE-F526-9F4D-9B3F-9AA90D515B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="35840" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="2" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>gray</t>
   </si>
   <si>
-    <t>phcva381.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>GNRDMN2</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>2022/10/24 16:53</t>
   </si>
   <si>
-    <t>phcva382.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>GNRCMN2</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>2022/10/24 17:32</t>
   </si>
   <si>
-    <t>phcva384.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>GNR9MN2</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>Intel(R) Xeon(R) Platinum 8280 CPU @ 2.70GHz 2.69 GHz</t>
   </si>
   <si>
-    <t>phcva840.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>JVQH853</t>
   </si>
   <si>
@@ -252,9 +240,6 @@
     <t>2022/10/28 14:06</t>
   </si>
   <si>
-    <t>phcva845.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>1Z0WH63</t>
   </si>
   <si>
@@ -528,9 +513,6 @@
     <t>PHCLA104</t>
   </si>
   <si>
-    <t>phcla104.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>CentOS 7 (64-bit)</t>
   </si>
   <si>
@@ -558,9 +540,6 @@
     <t>PHCLA105</t>
   </si>
   <si>
-    <t>phcla105.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>VMware Photon OS (64-bit)</t>
   </si>
   <si>
@@ -585,9 +564,6 @@
     <t>PHCLA106</t>
   </si>
   <si>
-    <t>phcla106.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>423cc8d2-b57a-1100-ab75-340f1167beeb</t>
   </si>
   <si>
@@ -606,9 +582,6 @@
     <t>PHCLA107</t>
   </si>
   <si>
-    <t>phcla107.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>423caf22-ed5f-705a-8be1-af2ddeae5219</t>
   </si>
   <si>
@@ -627,9 +600,6 @@
     <t>PHCLA109</t>
   </si>
   <si>
-    <t>phcla109.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>423c9d1d-f9c5-7f37-1995-106274702a39</t>
   </si>
   <si>
@@ -651,9 +621,6 @@
     <t>PHCLA110</t>
   </si>
   <si>
-    <t>phcmx991.piedmonthospital.org</t>
-  </si>
-  <si>
     <t>423c143b-2020-f02d-7ff7-90867c7dd6b3</t>
   </si>
   <si>
@@ -1066,6 +1033,39 @@
   </si>
   <si>
     <t>BCM57414 NetXtreme-E 10Gb/25Gb RDMA Ethernet Controller</t>
+  </si>
+  <si>
+    <t>phcva381.hospital.org</t>
+  </si>
+  <si>
+    <t>phcva382.hospital.org</t>
+  </si>
+  <si>
+    <t>phcva384.hospital.org</t>
+  </si>
+  <si>
+    <t>phcva840.hospital.org</t>
+  </si>
+  <si>
+    <t>phcva845.hospital.org</t>
+  </si>
+  <si>
+    <t>phcla104.hospital.org</t>
+  </si>
+  <si>
+    <t>phcla105.hospital.org</t>
+  </si>
+  <si>
+    <t>phcla106.hospital.org</t>
+  </si>
+  <si>
+    <t>phcla107.hospital.org</t>
+  </si>
+  <si>
+    <t>phcla109.hospital.org</t>
+  </si>
+  <si>
+    <t>phcmx991.hospital.org</t>
   </si>
 </sst>
 </file>
@@ -1854,22 +1854,22 @@
         <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1877,22 +1877,22 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D2">
         <v>1831420</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1900,22 +1900,22 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>1831420</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1923,22 +1923,22 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D4">
         <v>114473</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1946,22 +1946,22 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D5">
         <v>1831420</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1969,22 +1969,22 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D6">
         <v>1831420</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1992,22 +1992,22 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D7">
         <v>1831420</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2015,22 +2015,22 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D8">
         <v>763097</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2038,22 +2038,22 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D9">
         <v>1831420</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2061,22 +2061,22 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D10">
         <v>1831420</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2084,22 +2084,22 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D11">
         <v>1831420</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2107,22 +2107,22 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D12">
         <v>1831420</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2130,22 +2130,22 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D13">
         <v>763097</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2153,22 +2153,22 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D14">
         <v>1831420</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2176,22 +2176,22 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D15">
         <v>1831420</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2199,22 +2199,22 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D16">
         <v>1831420</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2222,22 +2222,22 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D17">
         <v>1831420</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2245,22 +2245,22 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D18">
         <v>1831420</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2268,22 +2268,22 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D19">
         <v>1831420</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2291,22 +2291,22 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D20">
         <v>1831420</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2314,22 +2314,22 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D21">
         <v>1831420</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2337,22 +2337,22 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D22">
         <v>114473</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2360,22 +2360,22 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D23">
         <v>763097</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2383,22 +2383,22 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D24">
         <v>1831420</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2406,22 +2406,22 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D25">
         <v>1831420</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2429,22 +2429,22 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D26">
         <v>1831420</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2452,22 +2452,22 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D27">
         <v>763097</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2475,22 +2475,22 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D28">
         <v>763097</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2498,22 +2498,22 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D29">
         <v>1831420</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2521,22 +2521,22 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D30">
         <v>1831420</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2544,22 +2544,22 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D31">
         <v>1831420</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2567,22 +2567,22 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D32">
         <v>1831420</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2590,22 +2590,22 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C33" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D33">
         <v>1831420</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2613,22 +2613,22 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D34">
         <v>1831420</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2636,22 +2636,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D35">
         <v>1831420</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2659,22 +2659,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D36">
         <v>114473</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2682,22 +2682,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C37" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D37">
         <v>1831420</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2705,22 +2705,22 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D38">
         <v>1831420</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2728,22 +2728,22 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D39">
         <v>763097</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2751,620 +2751,620 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C40" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D40">
         <v>1831420</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D41">
         <v>1831420</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D42">
         <v>228872</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C43" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D43">
         <v>1831420</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C44" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D44">
         <v>1831420</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D45">
         <v>763097</v>
       </c>
       <c r="E45" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C46" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D46">
         <v>1831420</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G46" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D47">
         <v>763097</v>
       </c>
       <c r="E47" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C48" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D48">
         <v>1831420</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C49" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D49">
         <v>1831420</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C50" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D50">
         <v>1831420</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C51" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D51">
         <v>1831420</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G51" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D52">
         <v>1831420</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G52" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D53">
         <v>1831420</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D54">
         <v>1831420</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G54" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D55">
         <v>1831420</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G55" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C56" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D56">
         <v>1831420</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G56" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D57">
         <v>1831420</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G57" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C58" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D58">
         <v>1831420</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G58" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D59">
         <v>1831420</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G59" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C60" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D60">
         <v>228872</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D61">
         <v>1831420</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G61" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D62">
         <v>1831420</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G62" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D63">
         <v>1831420</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G63" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D64">
         <v>1831420</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G64" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D65">
         <v>763097</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D66">
         <v>763097</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3399,19 +3399,19 @@
         <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3419,19 +3419,19 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D2">
         <v>10000</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3439,19 +3439,19 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3459,19 +3459,19 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D4">
         <v>10000</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3479,19 +3479,19 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D5">
         <v>10000</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F5" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3499,19 +3499,19 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D6">
         <v>10000</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3519,99 +3519,99 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D7">
         <v>10000</v>
       </c>
       <c r="E7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D8">
         <v>25000</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D9">
         <v>25000</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F9" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D10">
         <v>25000</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F10" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D11">
         <v>25000</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F11" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -3764,7 +3764,7 @@
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -3806,21 +3806,21 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
         <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
       </c>
       <c r="Y2" t="s">
         <v>46</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -3841,7 +3841,7 @@
         <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3883,21 +3883,21 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
         <v>46</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -3918,7 +3918,7 @@
         <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3960,21 +3960,21 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y4" t="s">
         <v>46</v>
       </c>
       <c r="Z4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -3983,7 +3983,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -3995,7 +3995,7 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L5">
         <v>151.19999999999999</v>
@@ -4037,21 +4037,21 @@
         <v>4</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Y5" t="s">
         <v>46</v>
       </c>
       <c r="Z5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -4060,7 +4060,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -4072,7 +4072,7 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4081,7 +4081,7 @@
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L6">
         <v>151.19999999999999</v>
@@ -4114,16 +4114,16 @@
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="W6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Y6" t="s">
         <v>46</v>
       </c>
       <c r="Z6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4170,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>14</v>
@@ -4182,60 +4182,60 @@
         <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -4277,7 +4277,7 @@
         <v>8</v>
       </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P2">
         <v>2.2999999999999998</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -4342,7 +4342,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P3">
         <v>2.8</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -4407,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P4">
         <v>2.8</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -4439,7 +4439,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>91</v>
@@ -4472,7 +4472,7 @@
         <v>366</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P5">
         <v>667.1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -4504,7 +4504,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -4537,7 +4537,7 @@
         <v>1479</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P6">
         <v>613.20000000000005</v>
@@ -4595,16 +4595,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>29</v>
@@ -4613,19 +4613,19 @@
         <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>14</v>
@@ -4634,18 +4634,18 @@
         <v>15</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>112</v>
@@ -4657,19 +4657,19 @@
         <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
         <v>39</v>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4701,19 +4701,19 @@
         <v>60322</v>
       </c>
       <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
         <v>108</v>
       </c>
-      <c r="H3" t="s">
-        <v>113</v>
-      </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
         <v>39</v>
@@ -4727,13 +4727,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>112</v>
@@ -4745,19 +4745,19 @@
         <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
@@ -4771,10 +4771,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -4789,19 +4789,19 @@
         <v>60322</v>
       </c>
       <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
         <v>108</v>
       </c>
-      <c r="H5" t="s">
-        <v>113</v>
-      </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
         <v>39</v>
@@ -4815,13 +4815,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>112</v>
@@ -4833,19 +4833,19 @@
         <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s">
         <v>39</v>
@@ -4859,10 +4859,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -4877,19 +4877,19 @@
         <v>60322</v>
       </c>
       <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
         <v>108</v>
       </c>
-      <c r="H7" t="s">
-        <v>113</v>
-      </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
         <v>39</v>
@@ -4903,13 +4903,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>216</v>
@@ -4921,19 +4921,19 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
         <v>39</v>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -4965,19 +4965,19 @@
         <v>138954</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
         <v>39</v>
@@ -4991,13 +4991,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>216</v>
@@ -5009,19 +5009,19 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
@@ -5035,10 +5035,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -5053,19 +5053,19 @@
         <v>138954</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
         <v>39</v>
@@ -5091,7 +5091,7 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5137,76 +5137,76 @@
   <sheetData>
     <row r="1" spans="1:38" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>14</v>
@@ -5218,57 +5218,57 @@
         <v>16</v>
       </c>
       <c r="AB1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="AJ1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5316,10 +5316,10 @@
         <v>11269</v>
       </c>
       <c r="V2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="W2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X2">
         <v>176828</v>
@@ -5331,54 +5331,54 @@
         <v>40</v>
       </c>
       <c r="AA2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AC2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AD2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AE2" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="AF2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AG2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AK2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AL2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -5426,10 +5426,10 @@
         <v>12320</v>
       </c>
       <c r="V3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="W3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X3">
         <v>1711312</v>
@@ -5444,48 +5444,48 @@
         <v>41</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AC3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AD3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AE3" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="AF3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AG3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AJ3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AL3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -5533,10 +5533,10 @@
         <v>12320</v>
       </c>
       <c r="V4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="W4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X4">
         <v>1711312</v>
@@ -5551,48 +5551,48 @@
         <v>41</v>
       </c>
       <c r="AB4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AE4" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="AF4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AJ4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AL4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -5640,10 +5640,10 @@
         <v>12320</v>
       </c>
       <c r="V5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="W5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X5">
         <v>572524</v>
@@ -5658,45 +5658,45 @@
         <v>41</v>
       </c>
       <c r="AB5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AC5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AD5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AE5" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="AF5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AJ5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AL5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5744,10 +5744,10 @@
         <v>12293</v>
       </c>
       <c r="V6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="W6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X6">
         <v>3214500</v>
@@ -5759,51 +5759,51 @@
         <v>40</v>
       </c>
       <c r="AA6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AC6" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AD6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="AF6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AJ6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AK6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AL6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -5851,10 +5851,10 @@
         <v>10346</v>
       </c>
       <c r="V7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="W7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X7">
         <v>125428</v>
@@ -5869,25 +5869,25 @@
         <v>41</v>
       </c>
       <c r="AB7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AC7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AD7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AE7" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="AF7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AJ7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AL7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5948,13 +5948,13 @@
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -5963,114 +5963,114 @@
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6112,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="U2">
         <v>295</v>
@@ -6162,13 +6162,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -6177,7 +6177,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G3">
         <v>0.47</v>
@@ -6219,7 +6219,7 @@
         <v>296</v>
       </c>
       <c r="T3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="U3">
         <v>152147</v>
@@ -6269,13 +6269,13 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -6284,7 +6284,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G4">
         <v>3.25</v>
@@ -6326,7 +6326,7 @@
         <v>783</v>
       </c>
       <c r="T4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="U4">
         <v>171033</v>
@@ -6376,13 +6376,13 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -6391,7 +6391,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G5">
         <v>0.72</v>
@@ -6433,7 +6433,7 @@
         <v>283</v>
       </c>
       <c r="T5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="U5">
         <v>26659</v>
@@ -6483,22 +6483,22 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G6">
         <v>1.34</v>
@@ -6540,7 +6540,7 @@
         <v>489</v>
       </c>
       <c r="T6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="U6">
         <v>100109</v>
@@ -6590,13 +6590,13 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -6605,7 +6605,7 @@
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="U7">
         <v>664</v>
@@ -6733,34 +6733,34 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>14</v>
@@ -6772,33 +6772,33 @@
         <v>15</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
         <v>158</v>
       </c>
-      <c r="F2" t="s">
-        <v>164</v>
-      </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H2">
         <v>86166</v>
@@ -6813,39 +6813,39 @@
         <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>158</v>
       </c>
-      <c r="F3" t="s">
-        <v>164</v>
-      </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -6860,39 +6860,39 @@
         <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="O3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>158</v>
       </c>
-      <c r="F4" t="s">
-        <v>164</v>
-      </c>
       <c r="G4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6907,39 +6907,39 @@
         <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
         <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="O4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H5">
         <v>15890</v>
@@ -6960,33 +6960,33 @@
         <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H6">
         <v>118</v>
@@ -7007,33 +7007,33 @@
         <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H7">
         <v>19986</v>
@@ -7054,33 +7054,33 @@
         <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H8">
         <v>765816</v>
@@ -7101,33 +7101,33 @@
         <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H9">
         <v>19986</v>
@@ -7148,33 +7148,33 @@
         <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H10">
         <v>15890</v>
@@ -7195,33 +7195,33 @@
         <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="O10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H11">
         <v>118</v>
@@ -7242,33 +7242,33 @@
         <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="O11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H12">
         <v>19986</v>
@@ -7289,33 +7289,33 @@
         <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="O12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G13" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H13">
         <v>765816</v>
@@ -7336,33 +7336,33 @@
         <v>40</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="O13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H14">
         <v>19986</v>
@@ -7383,33 +7383,33 @@
         <v>40</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="O14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H15">
         <v>15890</v>
@@ -7430,33 +7430,33 @@
         <v>40</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H16">
         <v>118</v>
@@ -7477,33 +7477,33 @@
         <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H17">
         <v>19986</v>
@@ -7524,33 +7524,33 @@
         <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H18">
         <v>211474</v>
@@ -7571,33 +7571,33 @@
         <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H19">
         <v>19986</v>
@@ -7618,33 +7618,33 @@
         <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="O19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H20">
         <v>7916</v>
@@ -7659,39 +7659,39 @@
         <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M20" t="s">
         <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="O20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H21">
         <v>122</v>
@@ -7706,39 +7706,39 @@
         <v>39</v>
       </c>
       <c r="L21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
         <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="O21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H22">
         <v>1524909</v>
@@ -7753,39 +7753,39 @@
         <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
         <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="O22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H23">
         <v>19986</v>
@@ -7800,39 +7800,39 @@
         <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
       </c>
       <c r="N23" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="O23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H24">
         <v>21916</v>
@@ -7853,33 +7853,33 @@
         <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="O24" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H25">
         <v>119</v>
@@ -7900,33 +7900,33 @@
         <v>40</v>
       </c>
       <c r="N25" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="O25" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H26">
         <v>9947</v>
@@ -7947,33 +7947,33 @@
         <v>40</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="O26" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H27">
         <v>21916</v>
@@ -7994,33 +7994,33 @@
         <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="O27" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G28" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H28">
         <v>21916</v>
@@ -8041,33 +8041,33 @@
         <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="O28" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H29">
         <v>21916</v>
@@ -8088,33 +8088,33 @@
         <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="O29" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H30">
         <v>21916</v>
@@ -8135,33 +8135,33 @@
         <v>40</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="O30" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>340</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G31" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H31">
         <v>20026</v>
@@ -8182,10 +8182,10 @@
         <v>40</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="O31" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -8214,13 +8214,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -8247,10 +8247,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -8269,10 +8269,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -8280,10 +8280,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -8291,10 +8291,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
